--- a/API_prac/data/cases02.xlsx
+++ b/API_prac/data/cases02.xlsx
@@ -3156,7 +3156,7 @@
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":465,"regname":"小麻花","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15283312745","leaveamount":"-180.00","type":"1","regtime":"2019-05-03 01:50:02.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":465,"regname":"小麻花","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15283312745","leaveamount":"-270.00","type":"1","regtime":"2019-05-03 01:50:02.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
